--- a/InputData/bldgs/MDSC/Max Distrib Solar Capacity.xlsx
+++ b/InputData/bldgs/MDSC/Max Distrib Solar Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\bldgs\MDSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAA0265-7CA2-437C-8F70-8F9EBA554183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54CA2BC1-A540-4FE6-9957-11708776C015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="6000" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -942,12 +942,6 @@
     <t>Table 5. Estimated Rooftop PV Technical Potential of Medium and Large Buildings by State</t>
   </si>
   <si>
-    <t>lowa</t>
-  </si>
-  <si>
-    <t>lndiana</t>
-  </si>
-  <si>
     <t>Continental lJ.S.Total</t>
   </si>
   <si>
@@ -1195,6 +1189,12 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>iowa</t>
+  </si>
+  <si>
+    <t>indiana</t>
   </si>
 </sst>
 </file>
@@ -1941,17 +1941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C1" s="31">
-        <v>45597</v>
+        <v>45686</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
@@ -1970,7 +1970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F2:G51,G2:G51)</f>
         <v>KY</v>
@@ -1981,10 +1981,10 @@
         <v>222</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1992,13 +1992,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2006,10 +2006,10 @@
         <v>215</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
@@ -2017,10 +2017,10 @@
         <v>216</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2028,10 +2028,10 @@
         <v>237</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2039,10 +2039,10 @@
         <v>192</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2050,18 +2050,18 @@
         <v>188</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F9" s="30" t="s">
         <v>220</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B10" s="2" t="s">
         <v>169</v>
       </c>
@@ -2069,10 +2069,10 @@
         <v>190</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>170</v>
       </c>
@@ -2080,21 +2080,21 @@
         <v>214</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B12" s="3">
         <v>2020</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>171</v>
       </c>
@@ -2102,10 +2102,10 @@
         <v>226</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B14" s="4" t="s">
         <v>172</v>
       </c>
@@ -2113,10 +2113,10 @@
         <v>204</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B15" s="4" t="s">
         <v>173</v>
       </c>
@@ -2124,10 +2124,10 @@
         <v>223</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -2135,18 +2135,18 @@
         <v>206</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F17" s="30" t="s">
         <v>196</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2154,21 +2154,21 @@
         <v>227</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>221</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -2176,18 +2176,18 @@
         <v>184</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F21" s="30" t="s">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -2195,18 +2195,18 @@
         <v>189</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F23" s="30" t="s">
         <v>191</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -2214,10 +2214,10 @@
         <v>201</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -2225,29 +2225,29 @@
         <v>219</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F26" s="30" t="s">
         <v>195</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>224</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>211</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2274,183 +2274,183 @@
         <v>197</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F30" s="30" t="s">
         <v>187</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F31" s="30" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F32" s="30" t="s">
         <v>194</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F33" s="30" t="s">
         <v>203</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F34" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F35" s="30" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F36" s="30" t="s">
         <v>205</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F37" s="30" t="s">
         <v>193</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F38" s="30" t="s">
         <v>213</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F39" s="30" t="s">
         <v>210</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F40" s="30" t="s">
         <v>186</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F41" s="30" t="s">
         <v>228</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F42" s="30" t="s">
         <v>202</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F43" s="30" t="s">
         <v>218</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F44" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F45" s="30" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F46" s="30" t="s">
         <v>185</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F47" s="30" t="s">
         <v>217</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F48" s="30" t="s">
         <v>225</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F49" s="30" t="s">
         <v>230</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F50" s="30" t="s">
         <v>199</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F51" s="30" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2471,19 +2471,19 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="7" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A3" s="6"/>
       <c r="B3" s="37" t="s">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="39" t="s">
@@ -2516,7 +2516,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>12</v>
@@ -2537,7 +2537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" s="16" t="s">
         <v>29</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" s="14" t="s">
         <v>37</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" s="14" t="s">
         <v>40</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" s="14" t="s">
         <v>43</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="14" t="s">
         <v>44</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A32" s="14" t="s">
         <v>45</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34" s="12" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A38" s="14" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A39" s="14" t="s">
         <v>52</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A40" s="14" t="s">
         <v>53</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A41" s="14" t="s">
         <v>54</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A42" s="14" t="s">
         <v>55</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A43" s="14" t="s">
         <v>56</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A46" s="14" t="s">
         <v>60</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A47" s="14" t="s">
         <v>61</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A48" s="14" t="s">
         <v>62</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A49" s="14" t="s">
         <v>63</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50" s="12" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A51" s="14" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A52" s="14" t="s">
         <v>66</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="14" t="s">
         <v>67</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A54" s="14" t="s">
         <v>68</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A55" s="14" t="s">
         <v>69</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A56" s="14" t="s">
         <v>71</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A57" s="14" t="s">
         <v>72</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A58" s="14" t="s">
         <v>73</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A59" s="12" t="s">
         <v>74</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A60" s="14" t="s">
         <v>75</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A61" s="14" t="s">
         <v>76</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" s="14" t="s">
         <v>77</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A63" s="14" t="s">
         <v>78</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A64" s="14" t="s">
         <v>79</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A65" s="14" t="s">
         <v>80</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A67" s="14" t="s">
         <v>81</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A68" s="12" t="s">
         <v>82</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A69" s="19" t="s">
         <v>83</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A70" s="19">
         <v>3</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="19">
         <v>4</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A72" s="19">
         <v>5</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A73" s="19">
         <v>6</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A74" s="19">
         <v>7</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A75" s="19">
         <v>8</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A76" s="19" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A77" s="12" t="s">
         <v>85</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A78" s="19">
         <v>0</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A79" s="19">
         <v>1</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A80" s="19">
         <v>2</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A81" s="19">
         <v>3</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A82" s="19">
         <v>4</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A83" s="19" t="s">
         <v>86</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A84" s="12" t="s">
         <v>87</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A85" s="19">
         <v>1</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A86" s="19">
         <v>2</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A87" s="19">
         <v>3</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A88" s="19">
         <v>4</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A89" s="19" t="s">
         <v>86</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A90" s="12" t="s">
         <v>88</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A91" s="19">
         <v>0</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A92" s="19">
         <v>1</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A93" s="19">
         <v>2</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A94" s="19" t="s">
         <v>89</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A95" s="12" t="s">
         <v>90</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A96" s="19">
         <v>0</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A97" s="19">
         <v>1</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A98" s="19" t="s">
         <v>91</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A99" s="12" t="s">
         <v>92</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A100" s="14" t="s">
         <v>93</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A101" s="16" t="s">
         <v>94</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A102" s="16" t="s">
         <v>95</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A103" s="19" t="s">
         <v>96</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A104" s="19" t="s">
         <v>63</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A105" s="12" t="s">
         <v>97</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A106" s="14" t="s">
         <v>93</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A107" s="16" t="s">
         <v>98</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="16" t="s">
         <v>99</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A109" s="14" t="s">
         <v>96</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A110" s="19" t="s">
         <v>63</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A111" s="12" t="s">
         <v>100</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A112" s="14" t="s">
         <v>93</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A113" s="16" t="s">
         <v>101</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="16" t="s">
         <v>102</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A115" s="16" t="s">
         <v>103</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A116" s="14" t="s">
         <v>96</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A117" s="19" t="s">
         <v>63</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A118" s="12" t="s">
         <v>104</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A119" s="14" t="s">
         <v>105</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A120" s="14" t="s">
         <v>106</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A121" s="14" t="s">
         <v>107</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A122" s="14" t="s">
         <v>108</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A123" s="12" t="s">
         <v>109</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124" s="14" t="s">
         <v>110</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125" s="14" t="s">
         <v>111</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A126" s="14" t="s">
         <v>112</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A127" s="14" t="s">
         <v>113</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A128" s="12" t="s">
         <v>114</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A129" s="14" t="s">
         <v>93</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A130" s="14" t="s">
         <v>96</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="19" t="s">
         <v>115</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A132" s="12" t="s">
         <v>116</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A133" s="14" t="s">
         <v>117</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A134" s="14" t="s">
         <v>118</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A135" s="14" t="s">
         <v>119</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A136" s="20" t="s">
         <v>120</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A137" s="20" t="s">
         <v>121</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A138" s="20" t="s">
         <v>122</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A139" s="20" t="s">
         <v>123</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A140" s="12" t="s">
         <v>124</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A141" s="14" t="s">
         <v>125</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A142" s="14" t="s">
         <v>126</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A143" s="14" t="s">
         <v>127</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A144" s="12" t="s">
         <v>128</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A145" s="14" t="s">
         <v>129</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A146" s="14" t="s">
         <v>67</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A147" s="14" t="s">
         <v>130</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A148" s="20" t="s">
         <v>131</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A149" s="20" t="s">
         <v>132</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A150" s="12" t="s">
         <v>133</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A151" s="19">
         <v>0</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A152" s="19">
         <v>1</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A153" s="19">
         <v>2</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A154" s="19" t="s">
         <v>89</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A155" s="12" t="s">
         <v>134</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A156" s="14" t="s">
         <v>93</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A157" s="14" t="s">
         <v>96</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A158" s="14" t="s">
         <v>135</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A159" s="12" t="s">
         <v>136</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A160" s="14" t="s">
         <v>93</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A161" s="14" t="s">
         <v>96</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A162" s="14" t="s">
         <v>81</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A163" s="12" t="s">
         <v>137</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A164" s="14" t="s">
         <v>93</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A165" s="16" t="s">
         <v>138</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A166" s="14" t="s">
         <v>96</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A167" s="12" t="s">
         <v>139</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A168" s="14" t="s">
         <v>93</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A169" s="16" t="s">
         <v>140</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A170" s="16" t="s">
         <v>141</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A171" s="14" t="s">
         <v>96</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A172" s="12" t="s">
         <v>142</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A173" s="14" t="s">
         <v>93</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A174" s="14" t="s">
         <v>96</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A175" s="14" t="s">
         <v>143</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A176" s="12" t="s">
         <v>144</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A177" s="14" t="s">
         <v>93</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A178" s="16" t="s">
         <v>145</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A179" s="16" t="s">
         <v>146</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A180" s="16" t="s">
         <v>147</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A181" s="16" t="s">
         <v>148</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A182" s="14" t="s">
         <v>96</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A183" s="12" t="s">
         <v>149</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A184" s="14" t="s">
         <v>93</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A185" s="14" t="s">
         <v>96</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A186" s="12" t="s">
         <v>150</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A187" s="19" t="s">
         <v>93</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A188" s="14" t="s">
         <v>96</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A189" s="14" t="s">
         <v>143</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A190" s="22" t="s">
         <v>151</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A191" s="16" t="s">
         <v>152</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A192" s="16" t="s">
         <v>153</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A193" s="16" t="s">
         <v>154</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A194" s="16" t="s">
         <v>155</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A195" s="16" t="s">
         <v>143</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A196" s="22" t="s">
         <v>156</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A197" s="16" t="s">
         <v>157</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A198" s="17" t="s">
         <v>158</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A199" s="17" t="s">
         <v>159</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A200" s="17" t="s">
         <v>160</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A201" s="17" t="s">
         <v>161</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A202" s="16" t="s">
         <v>162</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A203" s="16" t="s">
         <v>155</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A204" s="16" t="s">
         <v>143</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A205" s="12" t="s">
         <v>163</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A206" s="14" t="s">
         <v>93</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A207" s="14" t="s">
         <v>96</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A208" s="22" t="s">
         <v>164</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A209" s="16" t="s">
         <v>152</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A210" s="16" t="s">
         <v>153</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A211" s="16" t="s">
         <v>154</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A212" s="16" t="s">
         <v>165</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A213" s="22" t="s">
         <v>166</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A214" s="16" t="s">
         <v>158</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A215" s="16" t="s">
         <v>159</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A216" s="16" t="s">
         <v>161</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A217" s="16" t="s">
         <v>167</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A218" s="16" t="s">
         <v>165</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A219" s="14"/>
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
@@ -7445,7 +7445,7 @@
       <c r="F219" s="23"/>
       <c r="G219" s="23"/>
     </row>
-    <row r="220" spans="1:7" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A220" s="16"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -7454,7 +7454,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="1:7" s="18" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" s="18" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A221" s="40" t="s">
         <v>168</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="F221" s="40"/>
       <c r="G221" s="40"/>
     </row>
-    <row r="222" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -7494,18 +7494,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.75">
       <c r="B3" s="5" t="s">
         <v>180</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>183</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>184</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>186</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>187</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>188</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>189</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>190</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>191</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>192</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>195</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>196</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
         <v>197</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>198</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
         <v>199</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>200</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>201</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>206</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>207</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
         <v>208</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>210</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>211</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>212</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
         <v>213</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>215</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>216</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>217</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
         <v>218</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
         <v>219</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>220</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B41" t="s">
         <v>221</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B42" t="s">
         <v>222</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B43" t="s">
         <v>223</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B44" t="s">
         <v>224</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B45" t="s">
         <v>225</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B46" t="s">
         <v>226</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B47" t="s">
         <v>227</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B48" t="s">
         <v>228</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B49" t="s">
         <v>229</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
         <v>230</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
         <v>231</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B52" t="s">
         <v>232</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B53" t="s">
         <v>233</v>
       </c>
@@ -8385,18 +8385,18 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.75">
       <c r="B3" s="5" t="s">
         <v>180</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>237</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>185</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>184</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>194</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>187</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>215</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>186</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>191</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>189.2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>343.4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>202</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>195</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>188</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>199</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>193</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
         <v>196</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>192</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
         <v>224</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>189</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>212</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>198</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>206</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B25" t="s">
         <v>203</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>204</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>192.4</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>208</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>160.1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>213</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
         <v>210</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>198.8</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>205</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>206.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>201</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>216</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
         <v>226</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>220</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>207</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>424.6</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>218</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>114.6</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>197</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
         <v>200</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>217</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B41" t="s">
         <v>219</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B42" t="s">
         <v>223</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B43" t="s">
         <v>211</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B44" t="s">
         <v>222</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B45" t="s">
         <v>228</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B46" t="s">
         <v>221</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B47" t="s">
         <v>229</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B48" t="s">
         <v>225</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B49" t="s">
         <v>230</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
         <v>227</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
         <v>232</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B52" t="s">
         <v>238</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B53" t="s">
         <v>233</v>
       </c>
@@ -9270,24 +9270,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE1901-2698-4C54-802E-51343240533F}">
-  <dimension ref="B2:F53"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.75">
       <c r="B3" s="5" t="s">
         <v>180</v>
       </c>
@@ -9304,7 +9304,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" t="str">
+        <f>INDEX(About!G:G,MATCH(B4,About!F:F,0))</f>
+        <v>CA</v>
+      </c>
       <c r="B4" t="s">
         <v>237</v>
       </c>
@@ -9321,7 +9325,11 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" t="str">
+        <f>INDEX(About!G:G,MATCH(B5,About!F:F,0))</f>
+        <v>RI</v>
+      </c>
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -9338,7 +9346,11 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" t="str">
+        <f>INDEX(About!G:G,MATCH(B6,About!F:F,0))</f>
+        <v>CT</v>
+      </c>
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -9355,7 +9367,11 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" t="str">
+        <f>INDEX(About!G:G,MATCH(B7,About!F:F,0))</f>
+        <v>MA</v>
+      </c>
       <c r="B7" t="s">
         <v>189</v>
       </c>
@@ -9372,7 +9388,11 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" t="str">
+        <f>INDEX(About!G:G,MATCH(B8,About!F:F,0))</f>
+        <v>NH</v>
+      </c>
       <c r="B8" t="s">
         <v>187</v>
       </c>
@@ -9389,7 +9409,11 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" t="str">
+        <f>INDEX(About!G:G,MATCH(B9,About!F:F,0))</f>
+        <v>ME</v>
+      </c>
       <c r="B9" t="s">
         <v>184</v>
       </c>
@@ -9406,7 +9430,11 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" t="str">
+        <f>INDEX(About!G:G,MATCH(B10,About!F:F,0))</f>
+        <v>VT</v>
+      </c>
       <c r="B10" t="s">
         <v>185</v>
       </c>
@@ -9423,7 +9451,11 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" t="str">
+        <f>INDEX(About!G:G,MATCH(B11,About!F:F,0))</f>
+        <v>NV</v>
+      </c>
       <c r="B11" t="s">
         <v>197</v>
       </c>
@@ -9440,7 +9472,11 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" t="str">
+        <f>INDEX(About!G:G,MATCH(B12,About!F:F,0))</f>
+        <v>MD</v>
+      </c>
       <c r="B12" t="s">
         <v>200</v>
       </c>
@@ -9457,7 +9493,11 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" t="str">
+        <f>INDEX(About!G:G,MATCH(B13,About!F:F,0))</f>
+        <v>CO</v>
+      </c>
       <c r="B13" t="s">
         <v>192</v>
       </c>
@@ -9474,7 +9514,11 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" t="str">
+        <f>INDEX(About!G:G,MATCH(B14,About!F:F,0))</f>
+        <v>OK</v>
+      </c>
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -9491,7 +9535,11 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" t="str">
+        <f>INDEX(About!G:G,MATCH(B15,About!F:F,0))</f>
+        <v>FL</v>
+      </c>
       <c r="B15" t="s">
         <v>190</v>
       </c>
@@ -9508,7 +9556,11 @@
         <v>213.6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" t="str">
+        <f>INDEX(About!G:G,MATCH(B16,About!F:F,0))</f>
+        <v>NJ</v>
+      </c>
       <c r="B16" t="s">
         <v>198</v>
       </c>
@@ -9525,7 +9577,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" t="str">
+        <f>INDEX(About!G:G,MATCH(B17,About!F:F,0))</f>
+        <v>MN</v>
+      </c>
       <c r="B17" t="s">
         <v>201</v>
       </c>
@@ -9542,7 +9598,11 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" t="str">
+        <f>INDEX(About!G:G,MATCH(B18,About!F:F,0))</f>
+        <v>MI</v>
+      </c>
       <c r="B18" t="s">
         <v>191</v>
       </c>
@@ -9559,7 +9619,11 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" t="str">
+        <f>INDEX(About!G:G,MATCH(B19,About!F:F,0))</f>
+        <v>MO</v>
+      </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
@@ -9576,7 +9640,11 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" t="str">
+        <f>INDEX(About!G:G,MATCH(B20,About!F:F,0))</f>
+        <v>KS</v>
+      </c>
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -9593,7 +9661,11 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" t="str">
+        <f>INDEX(About!G:G,MATCH(B21,About!F:F,0))</f>
+        <v>NE</v>
+      </c>
       <c r="B21" t="s">
         <v>211</v>
       </c>
@@ -9610,7 +9682,11 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" t="str">
+        <f>INDEX(About!G:G,MATCH(B22,About!F:F,0))</f>
+        <v>IL</v>
+      </c>
       <c r="B22" t="s">
         <v>204</v>
       </c>
@@ -9627,7 +9703,11 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" t="str">
+        <f>INDEX(About!G:G,MATCH(B23,About!F:F,0))</f>
+        <v>TX</v>
+      </c>
       <c r="B23" t="s">
         <v>207</v>
       </c>
@@ -9644,7 +9724,11 @@
         <v>289.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" t="str">
+        <f>INDEX(About!G:G,MATCH(B24,About!F:F,0))</f>
+        <v>NY</v>
+      </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -9661,7 +9745,11 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" t="str">
+        <f>INDEX(About!G:G,MATCH(B25,About!F:F,0))</f>
+        <v>WI</v>
+      </c>
       <c r="B25" t="s">
         <v>199</v>
       </c>
@@ -9678,7 +9766,11 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" t="str">
+        <f>INDEX(About!G:G,MATCH(B26,About!F:F,0))</f>
+        <v>OH</v>
+      </c>
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -9695,7 +9787,11 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27" t="str">
+        <f>INDEX(About!G:G,MATCH(B27,About!F:F,0))</f>
+        <v>GA</v>
+      </c>
       <c r="B27" t="s">
         <v>214</v>
       </c>
@@ -9712,7 +9808,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28" t="str">
+        <f>INDEX(About!G:G,MATCH(B28,About!F:F,0))</f>
+        <v>VA</v>
+      </c>
       <c r="B28" t="s">
         <v>217</v>
       </c>
@@ -9729,7 +9829,11 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A29" t="str">
+        <f>INDEX(About!G:G,MATCH(B29,About!F:F,0))</f>
+        <v>LA</v>
+      </c>
       <c r="B29" t="s">
         <v>221</v>
       </c>
@@ -9746,7 +9850,11 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A30" t="str">
+        <f>INDEX(About!G:G,MATCH(B30,About!F:F,0))</f>
+        <v>NC</v>
+      </c>
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -9763,7 +9871,11 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A31" t="str">
+        <f>INDEX(About!G:G,MATCH(B31,About!F:F,0))</f>
+        <v>PA</v>
+      </c>
       <c r="B31" t="s">
         <v>210</v>
       </c>
@@ -9780,7 +9892,11 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A32" t="e">
+        <f>INDEX(About!G:G,MATCH(B32,About!F:F,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="B32" t="s">
         <v>231</v>
       </c>
@@ -9797,7 +9913,11 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A33" t="str">
+        <f>INDEX(About!G:G,MATCH(B33,About!F:F,0))</f>
+        <v>OR</v>
+      </c>
       <c r="B33" t="s">
         <v>213</v>
       </c>
@@ -9814,7 +9934,11 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A34" t="str">
+        <f>INDEX(About!G:G,MATCH(B34,About!F:F,0))</f>
+        <v>AR</v>
+      </c>
       <c r="B34" t="s">
         <v>216</v>
       </c>
@@ -9831,7 +9955,11 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A35" t="str">
+        <f>INDEX(About!G:G,MATCH(B35,About!F:F,0))</f>
+        <v>AL</v>
+      </c>
       <c r="B35" t="s">
         <v>222</v>
       </c>
@@ -9848,9 +9976,13 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A36" t="str">
+        <f>INDEX(About!G:G,MATCH(B36,About!F:F,0))</f>
+        <v>IA</v>
+      </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="C36" s="24">
         <v>0.107</v>
@@ -9865,7 +9997,11 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A37" t="str">
+        <f>INDEX(About!G:G,MATCH(B37,About!F:F,0))</f>
+        <v>MS</v>
+      </c>
       <c r="B37" t="s">
         <v>219</v>
       </c>
@@ -9882,7 +10018,11 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A38" t="str">
+        <f>INDEX(About!G:G,MATCH(B38,About!F:F,0))</f>
+        <v>NM</v>
+      </c>
       <c r="B38" t="s">
         <v>194</v>
       </c>
@@ -9899,7 +10039,11 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A39" t="str">
+        <f>INDEX(About!G:G,MATCH(B39,About!F:F,0))</f>
+        <v>TN</v>
+      </c>
       <c r="B39" t="s">
         <v>218</v>
       </c>
@@ -9916,7 +10060,11 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A40" t="str">
+        <f>INDEX(About!G:G,MATCH(B40,About!F:F,0))</f>
+        <v>SD</v>
+      </c>
       <c r="B40" t="s">
         <v>202</v>
       </c>
@@ -9933,7 +10081,11 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A41" t="str">
+        <f>INDEX(About!G:G,MATCH(B41,About!F:F,0))</f>
+        <v>KY</v>
+      </c>
       <c r="B41" t="s">
         <v>227</v>
       </c>
@@ -9950,9 +10102,13 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A42" t="str">
+        <f>INDEX(About!G:G,MATCH(B42,About!F:F,0))</f>
+        <v>IN</v>
+      </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="C42" s="24">
         <v>9.1999999999999998E-2</v>
@@ -9967,7 +10123,11 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A43" t="str">
+        <f>INDEX(About!G:G,MATCH(B43,About!F:F,0))</f>
+        <v>UT</v>
+      </c>
       <c r="B43" t="s">
         <v>212</v>
       </c>
@@ -9984,7 +10144,11 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A44" t="str">
+        <f>INDEX(About!G:G,MATCH(B44,About!F:F,0))</f>
+        <v>DE</v>
+      </c>
       <c r="B44" t="s">
         <v>220</v>
       </c>
@@ -10001,7 +10165,11 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A45" t="str">
+        <f>INDEX(About!G:G,MATCH(B45,About!F:F,0))</f>
+        <v>WA</v>
+      </c>
       <c r="B45" t="s">
         <v>225</v>
       </c>
@@ -10018,7 +10186,11 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A46" t="str">
+        <f>INDEX(About!G:G,MATCH(B46,About!F:F,0))</f>
+        <v>SC</v>
+      </c>
       <c r="B46" t="s">
         <v>228</v>
       </c>
@@ -10035,7 +10207,11 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A47" t="str">
+        <f>INDEX(About!G:G,MATCH(B47,About!F:F,0))</f>
+        <v>ND</v>
+      </c>
       <c r="B47" t="s">
         <v>229</v>
       </c>
@@ -10052,7 +10228,11 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A48" t="str">
+        <f>INDEX(About!G:G,MATCH(B48,About!F:F,0))</f>
+        <v>WV</v>
+      </c>
       <c r="B48" t="s">
         <v>230</v>
       </c>
@@ -10069,7 +10249,11 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A49" t="str">
+        <f>INDEX(About!G:G,MATCH(B49,About!F:F,0))</f>
+        <v>ID</v>
+      </c>
       <c r="B49" t="s">
         <v>226</v>
       </c>
@@ -10086,7 +10270,11 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A50" t="str">
+        <f>INDEX(About!G:G,MATCH(B50,About!F:F,0))</f>
+        <v>AZ</v>
+      </c>
       <c r="B50" t="s">
         <v>215</v>
       </c>
@@ -10103,7 +10291,11 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A51" t="str">
+        <f>INDEX(About!G:G,MATCH(B51,About!F:F,0))</f>
+        <v>WY</v>
+      </c>
       <c r="B51" t="s">
         <v>232</v>
       </c>
@@ -10120,7 +10312,11 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A52" t="str">
+        <f>INDEX(About!G:G,MATCH(B52,About!F:F,0))</f>
+        <v>MT</v>
+      </c>
       <c r="B52" t="s">
         <v>224</v>
       </c>
@@ -10137,9 +10333,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A53" t="e">
+        <f>INDEX(About!G:G,MATCH(B53,About!F:F,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C53" s="24">
         <v>0.13600000000000001</v>
@@ -10166,35 +10366,35 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10206,9 +10406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10220,9 +10420,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10234,9 +10434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10248,9 +10448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10262,9 +10462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10276,9 +10476,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" s="29">
         <f>SUMIFS('Small-bldg Potential'!D:D,'Small-bldg Potential'!B:B,About!$B$1)*About!B28*10^3</f>
@@ -10293,9 +10493,9 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10307,9 +10507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10321,9 +10521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10335,9 +10535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10349,9 +10549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10363,9 +10563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10377,9 +10577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10391,9 +10591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10405,9 +10605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10419,9 +10619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10433,9 +10633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10447,9 +10647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10461,9 +10661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10475,9 +10675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10489,9 +10689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10503,9 +10703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10517,9 +10717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25">
         <v>0</v>
